--- a/website/static/downloadable_files/Machine Activities Query.xlsx
+++ b/website/static/downloadable_files/Machine Activities Query.xlsx
@@ -46,22 +46,22 @@
     <t>Description</t>
   </si>
   <si>
-    <t>SPD-23-24-002</t>
-  </si>
-  <si>
-    <t>MDY - Nyaung Oo - Mya Kan Ta Man - Taung Pon Wa Chaung</t>
-  </si>
-  <si>
-    <t>DCA/23/09/000001</t>
-  </si>
-  <si>
-    <t>MIXER-LT-3500-03-20063 (3.5 M3)</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
-    <t>Dozer ကြိတ်ခြင်း</t>
+    <t>R-23-24-0045</t>
+  </si>
+  <si>
+    <t>ရန်ကုန် တိုက်ကြီးအငှား</t>
+  </si>
+  <si>
+    <t>DCA/23/10/000019</t>
+  </si>
+  <si>
+    <t>KOBELCO-210-30-2789</t>
+  </si>
+  <si>
+    <t>ကန်တူး</t>
+  </si>
+  <si>
+    <t>CAR</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>45199</v>
+        <v>45203</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -465,10 +465,10 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.2638888888888889</v>
+        <v>0.1875</v>
       </c>
       <c r="I2">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/website/static/downloadable_files/Machine Activities Query.xlsx
+++ b/website/static/downloadable_files/Machine Activities Query.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Job Function</t>
   </si>
   <si>
+    <t>Way</t>
+  </si>
+  <si>
     <t>Duty Hour</t>
   </si>
   <si>
@@ -46,22 +49,52 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R-23-24-0045</t>
-  </si>
-  <si>
-    <t>ရန်ကုန် တိုက်ကြီးအငှား</t>
-  </si>
-  <si>
-    <t>DCA/23/10/000019</t>
-  </si>
-  <si>
-    <t>KOBELCO-210-30-2789</t>
-  </si>
-  <si>
-    <t>ကန်တူး</t>
-  </si>
-  <si>
-    <t>CAR</t>
+    <t>PTG-23-24-001</t>
+  </si>
+  <si>
+    <t>Shan - Yet Souk - Kyine Kham Ta Man (23-24)</t>
+  </si>
+  <si>
+    <t>DCA/23/10/000054</t>
+  </si>
+  <si>
+    <t>KOBELCO-220-02-10445</t>
+  </si>
+  <si>
+    <t>LOT-1ကျိုင်းခမ်းတမံမြေဖို့</t>
+  </si>
+  <si>
+    <t>တူးတင်</t>
+  </si>
+  <si>
+    <t>3M/7919 (NO.241) (10 WHEELS) SINO</t>
+  </si>
+  <si>
+    <t>မြေသယ်</t>
+  </si>
+  <si>
+    <t>3M/7927 (NO.244) (10 WHEELS) SINO</t>
+  </si>
+  <si>
+    <t>5J/9543 (NO.184) (10 WHEELS) SINO</t>
+  </si>
+  <si>
+    <t>DOZER-07 (Komatsu-D85-EFF)</t>
+  </si>
+  <si>
+    <t>DOZERဖြန့်</t>
+  </si>
+  <si>
+    <t>DOZER-35 (Caterpillar-D7G-TT-16W)</t>
+  </si>
+  <si>
+    <t>DOZERကြိတ်</t>
+  </si>
+  <si>
+    <t>TT-18 (6 WHEELS) SINO</t>
+  </si>
+  <si>
+    <t>ရေဖြန်း</t>
   </si>
 </sst>
 </file>
@@ -404,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,34 +474,232 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>45203</v>
+        <v>45213</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.3125</v>
+      </c>
+      <c r="J2">
+        <v>28.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>45213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="J3">
+        <v>35.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>45213</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="J4">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>45213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="J5">
+        <v>18.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>45213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.3125</v>
+      </c>
+      <c r="J6">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>45213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J7">
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>45213</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>0.1875</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+      <c r="I8">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="J8">
+        <v>6.87</v>
       </c>
     </row>
   </sheetData>
